--- a/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,13 @@
     <sheet name="Return_wall_data" sheetId="6" r:id="rId6"/>
     <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
     <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
-    <sheet name="Regulator_plan" sheetId="9" r:id="rId9"/>
+    <sheet name="Foundation_Pressure_Calcualtion" sheetId="10" r:id="rId9"/>
+    <sheet name="Structural_Design_Parameter" sheetId="11" r:id="rId10"/>
+    <sheet name="Flexure_Design" sheetId="12" r:id="rId11"/>
+    <sheet name="Regulator_plan" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">Regulator_plan!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
   <si>
     <t>parameters</t>
   </si>
@@ -179,9 +182,6 @@
     <t>return wall level</t>
   </si>
   <si>
-    <t>fee-pwd</t>
-  </si>
-  <si>
     <t>Top of Appron</t>
   </si>
   <si>
@@ -450,6 +450,171 @@
   </si>
   <si>
     <t>Chadnimukha_2V_DFR</t>
+  </si>
+  <si>
+    <t>Glacis Level</t>
+  </si>
+  <si>
+    <t>Maximum Probable Soil Height</t>
+  </si>
+  <si>
+    <t>Maximum Probable Soil Pressure</t>
+  </si>
+  <si>
+    <t>psf</t>
+  </si>
+  <si>
+    <t>Unit Weight of Soil</t>
+  </si>
+  <si>
+    <t>kpa to psf</t>
+  </si>
+  <si>
+    <t>unit less</t>
+  </si>
+  <si>
+    <t>Maximum Probable Soil Pressure in Kpa</t>
+  </si>
+  <si>
+    <t>kpa to t/sqm</t>
+  </si>
+  <si>
+    <t>Elevation at Which Silt and Fine Sand Found</t>
+  </si>
+  <si>
+    <t>Top of Sand Pile</t>
+  </si>
+  <si>
+    <t>Length of Sand Pile</t>
+  </si>
+  <si>
+    <t>After Rounding</t>
+  </si>
+  <si>
+    <t>Kpa</t>
+  </si>
+  <si>
+    <t>Maximum Probable Soil Pressure (t/sqm)</t>
+  </si>
+  <si>
+    <t>Fine Sand and Clay Safe Bearing Capacity(t/sqm)</t>
+  </si>
+  <si>
+    <t>page 6-45 CIDA  1993 volume2</t>
+  </si>
+  <si>
+    <t>f'c</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>concete compressive strength Mks</t>
+  </si>
+  <si>
+    <t>Mpa to psi</t>
+  </si>
+  <si>
+    <t>unitless</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>allowable compress stress in concrete</t>
+  </si>
+  <si>
+    <t>Vc</t>
+  </si>
+  <si>
+    <t>concrete allowable stress in shear without web reinforcement</t>
+  </si>
+  <si>
+    <t>concrete allowable stress in shear  web reinforcement</t>
+  </si>
+  <si>
+    <t>allowable punching shear stress</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>steel yield stress</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>allowable stress in reinforcing steel</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Ec</t>
+  </si>
+  <si>
+    <t>Modulus of Elasticity  of Reinforcing Steel</t>
+  </si>
+  <si>
+    <t>Modulus of Elasticity  of Concrete</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Design Constants:</t>
+  </si>
+  <si>
+    <t>Material Properties:</t>
+  </si>
+  <si>
+    <t>modular ratio</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>allowable stress ratio</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Member Name</t>
+  </si>
+  <si>
+    <t>Top Slab</t>
+  </si>
+  <si>
+    <t>Moment Designation</t>
+  </si>
+  <si>
+    <t>+ Moment(Bottom Tension)</t>
+  </si>
+  <si>
+    <t>Design Moment(Kip-feet/feet)</t>
+  </si>
+  <si>
+    <t>Design Moment(lb-inch/feet)</t>
+  </si>
+  <si>
+    <t>(-) Moment Top Tension</t>
+  </si>
+  <si>
+    <t>t(inch)</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -530,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +719,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,6 +1020,852 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="58.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="3">
+        <v>145.04</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C3*C4</f>
+        <v>3626</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="3">
+        <f>0.4*C5</f>
+        <v>1450.4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3">
+        <f>1.1*SQRT(C5)</f>
+        <v>66.23790455622823</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3">
+        <f>5*SQRT(C5)</f>
+        <v>301.08138434649197</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="3">
+        <f>2*SQRT(C5)</f>
+        <v>120.43255373859678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="3">
+        <v>415</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C10*C4</f>
+        <v>60191.6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="10">
+        <f>29000*1000</f>
+        <v>29000000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="10">
+        <f>57000*SQRT(C5)</f>
+        <v>3432327.7815500083</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C13/C14</f>
+        <v>8.4490765001773411</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C12/C6</f>
+        <v>16.54715940430226</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="3">
+        <f>ROUND(C6/((C12/C16)+C6),3)</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3">
+        <f>ROUND((1-(1/3)*C18),3)</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="3">
+        <f>0.5*C6*C18*C19</f>
+        <v>217.41931120000004</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2*12000</f>
+        <v>43200</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7.24</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*12000</f>
+        <v>86880</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-2.4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -862,375 +1882,410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>4.18</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>4.92</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>12.956</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>-4.92</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f>C4-C11</f>
         <v>17.875999999999998</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>-4.5919999999999996</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>18.04</v>
       </c>
+      <c r="D7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>19.68</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>3</v>
       </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>-4.92</v>
       </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>54</v>
       </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>2</v>
       </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>6</v>
       </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>9.84</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>21.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
+      <c r="B25" s="9"/>
+      <c r="C25" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>17.876000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1">
+      <c r="B27" s="9"/>
+      <c r="C27" s="3">
         <v>0.14299999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3">
         <v>12.956</v>
       </c>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +2526,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +2539,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1">
         <v>4.55</v>
@@ -1513,10 +2568,10 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <v>-8.3640000000000008</v>
@@ -1529,10 +2584,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>8.1999999999999993</v>
@@ -1541,77 +2596,77 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>0.3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>0.39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1620,12 +2675,12 @@
         <v>14.923999999999999</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1635,12 +2690,12 @@
         <v>10.036799999999999</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1649,12 +2704,12 @@
         <v>4.8639999999999999</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -1663,21 +2718,21 @@
         <v>4.8639999999999999</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>0.33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1711,15 +2766,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <v>-2.5499999999999998</v>
@@ -1728,10 +2783,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>2.5</v>
@@ -1740,94 +2795,94 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>0.3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>0.39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>4.55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>3.06</v>
@@ -1836,10 +2891,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
         <v>1.49</v>
@@ -1848,10 +2903,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>1.7</v>
@@ -1860,16 +2915,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>0.33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1903,15 +2958,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <v>-8.3640000000000008</v>
@@ -1920,10 +2975,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>12.956</v>
@@ -1932,7 +2987,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -1941,12 +2996,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1955,7 +3010,7 @@
         <v>2.67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>0.17499999999999999</v>
@@ -1963,7 +3018,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1972,7 +3027,7 @@
         <v>2.67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1">
         <v>0.17499999999999999</v>
@@ -1980,7 +3035,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1989,7 +3044,7 @@
         <v>39.36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1">
         <v>0.56999999999999995</v>
@@ -1997,7 +3052,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -2006,7 +3061,7 @@
         <v>14.923999999999999</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1">
         <v>0.39</v>
@@ -2014,7 +3069,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -2024,12 +3079,12 @@
         <v>10.036799999999999</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -2039,12 +3094,12 @@
         <v>4.8872</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -2054,21 +3109,21 @@
         <v>5.5759999999999996</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>0.33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2078,478 +3133,229 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>18.04</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-4.92</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-4</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C3+C4</f>
+        <v>-8.92</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <f>C2-C5</f>
+        <v>26.96</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C6*C7</f>
+        <v>3235.2000000000003</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.888999999999999</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C8/C9</f>
+        <v>154.87577193738332</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <f>C10/C11</f>
+        <v>15.803650197692175</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-12.17</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-3.7749999999999999</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="3">
-        <v>-2.4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C16" s="3">
+        <f>C15-C14</f>
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="8">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="3">
-        <v>12.25</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2.54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2.98</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="1">
-        <v>25</v>
-      </c>
+      <c r="C17" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Basic_Parameter" sheetId="3" r:id="rId3"/>
-    <sheet name="Basin Input" sheetId="4" r:id="rId4"/>
-    <sheet name="structure_name" sheetId="5" r:id="rId5"/>
-    <sheet name="Return_wall_data" sheetId="6" r:id="rId6"/>
-    <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
-    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
-    <sheet name="Foundation_Pressure_Calcualtion" sheetId="10" r:id="rId9"/>
-    <sheet name="Structural_Design_Parameter" sheetId="11" r:id="rId10"/>
+    <sheet name="Basin Input" sheetId="4" r:id="rId3"/>
+    <sheet name="structure_name" sheetId="5" r:id="rId4"/>
+    <sheet name="Return_wall_data" sheetId="6" r:id="rId5"/>
+    <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId6"/>
+    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId7"/>
+    <sheet name="Foundation_Pressure_Calcualtion" sheetId="10" r:id="rId8"/>
+    <sheet name="Structural_Design_Parameter" sheetId="11" r:id="rId9"/>
+    <sheet name="Basic_Parameter" sheetId="3" r:id="rId10"/>
     <sheet name="Flexure_Design" sheetId="12" r:id="rId11"/>
     <sheet name="Regulator_plan" sheetId="9" r:id="rId12"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="212">
   <si>
     <t>parameters</t>
   </si>
@@ -605,16 +605,70 @@
     <t>Design Moment(Kip-feet/feet)</t>
   </si>
   <si>
-    <t>Design Moment(lb-inch/feet)</t>
-  </si>
-  <si>
     <t>(-) Moment Top Tension</t>
   </si>
   <si>
-    <t>t(inch)</t>
-  </si>
-  <si>
     <t>cc</t>
+  </si>
+  <si>
+    <t>dreq</t>
+  </si>
+  <si>
+    <t>treq</t>
+  </si>
+  <si>
+    <t>t_provided</t>
+  </si>
+  <si>
+    <t>Abutment</t>
+  </si>
+  <si>
+    <t>Design Axial Force (Kip)</t>
+  </si>
+  <si>
+    <t>Design Shear Force (Kip)</t>
+  </si>
+  <si>
+    <t>bar_area</t>
+  </si>
+  <si>
+    <t>R(ksi)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>b(inch)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>bar_dia(mm)</t>
+  </si>
+  <si>
+    <t>allowable shear force(psi)</t>
+  </si>
+  <si>
+    <t>check_thickness</t>
+  </si>
+  <si>
+    <t>fs(ksi)</t>
+  </si>
+  <si>
+    <t>d_provided</t>
+  </si>
+  <si>
+    <t>As_req(sqinch/feet)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>spacings</t>
   </si>
 </sst>
 </file>
@@ -695,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,6 +782,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,21 +1093,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1046,290 +1116,418 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.18</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>156</v>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12.956</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-4.92</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C4-C11</f>
+        <v>17.875999999999998</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-4.5919999999999996</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>18.04</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19.68</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-4.92</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="3">
-        <v>145.04</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3">
-        <f>C3*C4</f>
-        <v>3626</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="3">
-        <f>0.4*C5</f>
-        <v>1450.4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="3">
-        <f>1.1*SQRT(C5)</f>
-        <v>66.23790455622823</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="3">
-        <f>5*SQRT(C5)</f>
-        <v>301.08138434649197</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="3">
-        <f>2*SQRT(C5)</f>
-        <v>120.43255373859678</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="3">
-        <v>415</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="3">
-        <f>C10*C4</f>
-        <v>60191.6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="3">
-        <v>24000</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="10">
-        <f>29000*1000</f>
-        <v>29000000</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="10">
-        <f>57000*SQRT(C5)</f>
-        <v>3432327.7815500083</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="3">
-        <f>C13/C14</f>
-        <v>8.4490765001773411</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="3">
-        <f>C12/C6</f>
-        <v>16.54715940430226</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="C18" s="3">
-        <f>ROUND(C6/((C12/C16)+C6),3)</f>
-        <v>0.33800000000000002</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>183</v>
+      <c r="A19" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3">
-        <f>ROUND((1-(1/3)*C18),3)</f>
-        <v>0.88700000000000001</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>184</v>
+      <c r="A20" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
-        <f>0.5*C6*C18*C19</f>
-        <v>217.41931120000004</v>
-      </c>
-      <c r="D20" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17.876000000000001</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3">
+        <v>120</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12.956</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="2" max="9" width="30.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="16" customWidth="1"/>
+    <col min="11" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="29.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="16"/>
+    <col min="16" max="16" width="8.88671875" style="21"/>
+    <col min="17" max="18" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>185</v>
       </c>
@@ -1340,16 +1538,61 @@
         <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="P1" s="19" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="Q1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>186</v>
       </c>
@@ -1359,32 +1602,219 @@
       <c r="C2" s="3">
         <v>3.6</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2*12000</f>
-        <v>43200</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="15">
+        <f>(PI()/4)*(I2/25.4)^2</f>
+        <v>0.17530122067275183</v>
+      </c>
+      <c r="K2" s="3">
+        <v>217</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3">
+        <v>67</v>
+      </c>
+      <c r="O2" s="15">
+        <f>SQRT((12000*C2)/(K2*F2))</f>
+        <v>4.0730653998127844</v>
+      </c>
+      <c r="P2" s="20">
+        <f>O2+H2+1</f>
+        <v>8.0730653998127835</v>
+      </c>
+      <c r="Q2" s="3" t="str">
+        <f>IF(P2&lt;G2,"Ok","Not Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R2" s="12">
+        <f>G2-H2-1</f>
+        <v>16</v>
+      </c>
+      <c r="S2" s="15">
+        <f>(C2*12)/(M2*L2*R2)</f>
+        <v>0.12683201803833147</v>
+      </c>
+      <c r="T2">
+        <f>S2/J2</f>
+        <v>0.72350904090450385</v>
+      </c>
+      <c r="U2" s="16">
+        <f>F2/(T2)</f>
+        <v>16.585832825251291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3">
         <v>7.24</v>
       </c>
-      <c r="D3" s="3">
-        <f>C3*12000</f>
-        <v>86880</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J5" si="0">(PI()/4)*(I3/25.4)^2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>217</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>67</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="3" t="str">
+        <f t="shared" ref="Q3:Q5" si="1">IF(P3&lt;G3,"Ok","Not Ok")</f>
+        <v>Not Ok</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R5" si="2">G3-H3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="S3" s="15" t="e">
+        <f t="shared" ref="S3:S5" si="3">(C3*12)/(M3*L3*R3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" t="e">
+        <f t="shared" ref="T3:T5" si="4">S3/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U3" s="16" t="e">
+        <f t="shared" ref="U3:U5" si="5">F3/(T3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>217</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>67</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Ok</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S4" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>217</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>67</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Ok</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S5" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1880,420 +2310,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.18</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.92</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>12.956</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-4.92</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C4-C11</f>
-        <v>17.875999999999998</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-4.5919999999999996</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
-        <v>18.04</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>19.68</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8">
-        <v>-4.92</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3">
-        <v>9.84</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3">
-        <v>21.32</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3">
-        <v>17.876000000000001</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="3">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="3">
-        <v>120</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="8">
-        <v>11.5</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3">
-        <v>12.956</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2506,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2534,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2740,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2932,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3131,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3358,4 +3374,297 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="58.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="3">
+        <v>145.04</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C3*C4</f>
+        <v>3626</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="3">
+        <f>0.4*C5</f>
+        <v>1450.4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3">
+        <f>1.1*SQRT(C5)</f>
+        <v>66.23790455622823</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3">
+        <f>5*SQRT(C5)</f>
+        <v>301.08138434649197</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="3">
+        <f>2*SQRT(C5)</f>
+        <v>120.43255373859678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="3">
+        <v>415</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C10*C4</f>
+        <v>60191.6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="10">
+        <f>29000*1000</f>
+        <v>29000000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="10">
+        <f>57000*SQRT(C5)</f>
+        <v>3432327.7815500083</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C13/C14</f>
+        <v>8.4490765001773411</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C12/C6</f>
+        <v>16.54715940430226</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="3">
+        <f>ROUND(C6/((C12/C16)+C6),3)</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3">
+        <f>ROUND((1-(1/3)*C18),3)</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="3">
+        <f>0.5*C6*C18*C19</f>
+        <v>217.41931120000004</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -3378,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3422,7 +3422,7 @@
         <v>158</v>
       </c>
       <c r="C3" s="3">
-        <v>25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>159</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="C5" s="3">
         <f>C3*C4</f>
-        <v>3626</v>
+        <v>159.54400000000001</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C6" s="3">
         <f>0.4*C5</f>
-        <v>1450.4</v>
+        <v>63.817600000000006</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>163</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="C7" s="3">
         <f>1.1*SQRT(C5)</f>
-        <v>66.23790455622823</v>
+        <v>13.894180076564433</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>165</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C8" s="3">
         <f>5*SQRT(C5)</f>
-        <v>301.08138434649197</v>
+        <v>63.155363984383783</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>166</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="C9" s="3">
         <f>2*SQRT(C5)</f>
-        <v>120.43255373859678</v>
+        <v>25.262145593753512</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>167</v>
@@ -3521,7 +3521,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="3">
-        <v>415</v>
+        <v>276</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>169</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C11" s="3">
         <f>C10*C4</f>
-        <v>60191.6</v>
+        <v>40031.040000000001</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>169</v>
@@ -3550,7 +3550,8 @@
         <v>157</v>
       </c>
       <c r="C12" s="3">
-        <v>24000</v>
+        <f>0.45*C11</f>
+        <v>18013.968000000001</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>171</v>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="C14" s="10">
         <f>57000*SQRT(C5)</f>
-        <v>3432327.7815500083</v>
+        <v>719971.14942197513</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>175</v>
@@ -3603,7 +3604,7 @@
       </c>
       <c r="C16" s="3">
         <f>C13/C14</f>
-        <v>8.4490765001773411</v>
+        <v>40.279391782965874</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>179</v>
@@ -3618,7 +3619,7 @@
       </c>
       <c r="C17" s="3">
         <f>C12/C6</f>
-        <v>16.54715940430226</v>
+        <v>282.27272727272725</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>181</v>
@@ -3633,7 +3634,7 @@
       </c>
       <c r="C18" s="3">
         <f>ROUND(C6/((C12/C16)+C6),3)</f>
-        <v>0.33800000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -3646,7 +3647,7 @@
       </c>
       <c r="C19" s="3">
         <f>ROUND((1-(1/3)*C18),3)</f>
-        <v>0.88700000000000001</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -3659,9 +3660,12 @@
       </c>
       <c r="C20" s="3">
         <f>0.5*C6*C18*C19</f>
-        <v>217.41931120000004</v>
+        <v>3.8210788</v>
       </c>
       <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Chadnumukha_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Basic_Parameter" sheetId="3" r:id="rId10"/>
     <sheet name="Flexure_Design" sheetId="12" r:id="rId11"/>
     <sheet name="Regulator_plan" sheetId="9" r:id="rId12"/>
+    <sheet name="reinforcement_data" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">Regulator_plan!$A$1:$E$27</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="276">
   <si>
     <t>parameters</t>
   </si>
@@ -669,19 +670,217 @@
   </si>
   <si>
     <t>spacings</t>
+  </si>
+  <si>
+    <t>ComponentName</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Reinforcement_code</t>
+  </si>
+  <si>
+    <t>Operating_Deck_Slab</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>Head_Wall</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Extended_Portion_Abutment</t>
+  </si>
+  <si>
+    <t>EXPA</t>
+  </si>
+  <si>
+    <t>Extended_Portion_Pier</t>
+  </si>
+  <si>
+    <t>EXPP</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>Wingwall_Appron</t>
+  </si>
+  <si>
+    <t>UWA</t>
+  </si>
+  <si>
+    <t>Return Wall</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>ODS-R1</t>
+  </si>
+  <si>
+    <t>ODS-R2</t>
+  </si>
+  <si>
+    <t>ODS-R3</t>
+  </si>
+  <si>
+    <t>ODS-R4</t>
+  </si>
+  <si>
+    <t>HW-R1</t>
+  </si>
+  <si>
+    <t>HW-R2</t>
+  </si>
+  <si>
+    <t>HW-R3</t>
+  </si>
+  <si>
+    <t>HW-R4</t>
+  </si>
+  <si>
+    <t>EXPA-R1</t>
+  </si>
+  <si>
+    <t>EXPA-R2</t>
+  </si>
+  <si>
+    <t>EXPA-R3</t>
+  </si>
+  <si>
+    <t>EXPA-R4</t>
+  </si>
+  <si>
+    <t>EXPP-R1</t>
+  </si>
+  <si>
+    <t>EXPP-R2</t>
+  </si>
+  <si>
+    <t>EXPP-R3</t>
+  </si>
+  <si>
+    <t>EXPP-R4</t>
+  </si>
+  <si>
+    <t>BRL-R1</t>
+  </si>
+  <si>
+    <t>BRL-R2</t>
+  </si>
+  <si>
+    <t>BRL-R3</t>
+  </si>
+  <si>
+    <t>BRL-R4</t>
+  </si>
+  <si>
+    <t>BRL-R5</t>
+  </si>
+  <si>
+    <t>BRL-R6</t>
+  </si>
+  <si>
+    <t>BRL-R7</t>
+  </si>
+  <si>
+    <t>UWA-R1</t>
+  </si>
+  <si>
+    <t>UWA-R2</t>
+  </si>
+  <si>
+    <t>UWA-R3</t>
+  </si>
+  <si>
+    <t>UWA-R4</t>
+  </si>
+  <si>
+    <t>UWA-R5</t>
+  </si>
+  <si>
+    <t>UWA-R6</t>
+  </si>
+  <si>
+    <t>UWA-R7</t>
+  </si>
+  <si>
+    <t>RWA-R1</t>
+  </si>
+  <si>
+    <t>RWA-R2</t>
+  </si>
+  <si>
+    <t>RWA-R3</t>
+  </si>
+  <si>
+    <t>RWA-R4</t>
+  </si>
+  <si>
+    <t>RWA-R5</t>
+  </si>
+  <si>
+    <t>RWA-R6</t>
+  </si>
+  <si>
+    <t>RWA-R7</t>
+  </si>
+  <si>
+    <t>Reinforcement_Type</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>t_initial</t>
+  </si>
+  <si>
+    <t>deduction</t>
+  </si>
+  <si>
+    <t>bar_designation</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>d10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -698,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -745,11 +944,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,6 +1010,15 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2296,6 +2517,1361 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3">
+        <v>16</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3">
+        <v>16</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3">
+        <v>16</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3">
+        <v>16</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>12</v>
+      </c>
+      <c r="I31" s="3">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>12</v>
+      </c>
+      <c r="I34" s="3">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>12</v>
+      </c>
+      <c r="I36" s="3">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3">
+        <v>16</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>12</v>
+      </c>
+      <c r="I38" s="3">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -3380,7 +4956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
